--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_4_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_4_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1007223410707957</v>
+        <v>0.03754871565727036</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1007223410707957</v>
+        <v>0.03754871565727036</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.425803822857542</v>
+        <v>7.825603037872828</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.6145976938497384, 13.466205339564823]</t>
+          <t>[0.45615190123026395, 15.195054174515391]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.07262712465045018</v>
+        <v>0.03791681414526971</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07262712465045018</v>
+        <v>0.03791681414526971</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.459158149415079</v>
+        <v>-1.295631805084079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.0315268449054655, 0.11321054607530767]</t>
+          <t>[-2.6415794084238504, 0.05031579825569299]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.06812715921100443</v>
+        <v>0.05881129234356797</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06812715921100443</v>
+        <v>0.05881129234356797</v>
       </c>
       <c r="T2" t="n">
-        <v>11.16185438124328</v>
+        <v>10.9501751327154</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.086236993009776, 15.237471769476791]</t>
+          <t>[6.826052812733495, 15.074297452697307]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.622962377378911e-06</v>
+        <v>2.866767883080712e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.622962377378911e-06</v>
+        <v>2.866767883080712e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.292572572572602</v>
+        <v>4.738618618618649</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4106306306306307</v>
+        <v>-0.184024024024029</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.99577577577584</v>
+        <v>9.661261261261327</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1979424283713117</v>
+        <v>0.08089733625589701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1979424283713117</v>
+        <v>0.08089733625589701</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.824981486963672</v>
+        <v>7.020726726492514</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.7358247622586767, 14.385787736186021]</t>
+          <t>[-1.5786950531838926, 15.62014850616892]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.177346036714535</v>
+        <v>0.1070728469732614</v>
       </c>
       <c r="O3" t="n">
-        <v>0.177346036714535</v>
+        <v>0.1070728469732614</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9056843686024632</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.968658587417737, 2.157289850212811]</t>
+          <t>[-4.000105961327545, 2.163579324994773]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5544621430916352</v>
+        <v>0.5514361872631532</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5544621430916352</v>
+        <v>0.5514361872631532</v>
       </c>
       <c r="T3" t="n">
-        <v>11.7568239318445</v>
+        <v>11.71968008598462</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.237545987346369, 16.276101876342633]</t>
+          <t>[7.392503997171591, 16.04685617479765]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.125499161844459e-06</v>
+        <v>1.995550781730415e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.125499161844459e-06</v>
+        <v>1.995550781730415e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.285045045045063</v>
+        <v>3.358438438438462</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.824794794794839</v>
+        <v>-7.913033033033088</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.39488488488496</v>
+        <v>14.62990990991001</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05896187037677225</v>
+        <v>0.09197134211497859</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05896187037677225</v>
+        <v>0.09197134211497859</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.37022268949686</v>
+        <v>5.670652056766702</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.7557586888328345, 13.496204067826554]</t>
+          <t>[-1.093815209855201, 12.435119323388605]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.07848744470856373</v>
+        <v>0.09824954537244257</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07848744470856373</v>
+        <v>0.09824954537244257</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.767315923399309</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.6353164239737743, 2.1006845771751563]</t>
+          <t>[-3.635316423973775, 2.3522635684536195]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5926387763132648</v>
+        <v>0.6680976392579634</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5926387763132648</v>
+        <v>0.6680976392579634</v>
       </c>
       <c r="T4" t="n">
-        <v>10.7065282395567</v>
+        <v>10.4433792516216</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.988050639570302, 14.425005839543092]</t>
+          <t>[6.812580781949684, 14.074177721293516]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.197867539192714e-07</v>
+        <v>6.324500578802628e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>6.197867539192714e-07</v>
+        <v>6.324500578802628e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>2.783163163163181</v>
+        <v>2.346306306306321</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.619479479479518</v>
+        <v>-8.603123123123185</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.18580580580588</v>
+        <v>13.29573573573583</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3446033491232228</v>
+        <v>0.08004201173043302</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3446033491232228</v>
+        <v>0.08004201173043302</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.963360941436482</v>
+        <v>6.192955876475649</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.334392987767856, 11.26111487064082]</t>
+          <t>[-0.4840497460440325, 12.86996149899533]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2798433890721508</v>
+        <v>0.06826899846070766</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2798433890721508</v>
+        <v>0.06826899846070766</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.4780000834290776</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.61644799962789, 2.660447832769735]</t>
+          <t>[-1.7421845146033483, 1.3899739268135018]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.7604431629551991</v>
+        <v>0.8218494894721877</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7604431629551991</v>
+        <v>0.8218494894721877</v>
       </c>
       <c r="T5" t="n">
-        <v>10.25237783539976</v>
+        <v>10.78063783707181</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.363787981196207, 14.140967689603304]</t>
+          <t>[6.894274700580736, 14.667000973562894]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.253218781251732e-06</v>
+        <v>1.27539949801303e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.253218781251732e-06</v>
+        <v>1.27539949801303e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>1.733773773773784</v>
+        <v>0.6440840840840885</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.649819819819873</v>
+        <v>-5.083663663663696</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.11736736736744</v>
+        <v>6.371831831831873</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1161355772164512</v>
+        <v>0.2007813246533766</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1161355772164512</v>
+        <v>0.2007813246533766</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.842569785537547</v>
+        <v>5.222742669317155</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.3320669396381728, 13.017206510713267]</t>
+          <t>[-1.9787763774382316, 12.424261716072541]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1079450964843651</v>
+        <v>0.1510496082943953</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1079450964843651</v>
+        <v>0.1510496082943953</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1383684452031542</v>
+        <v>0.03144737390980801</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.7296055650394262, 1.4528686746331179]</t>
+          <t>[-2.9371847231760424, 3.0000794709956584]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.861755758904136</v>
+        <v>0.9830720800360933</v>
       </c>
       <c r="S6" t="n">
-        <v>0.861755758904136</v>
+        <v>0.9830720800360933</v>
       </c>
       <c r="T6" t="n">
-        <v>9.352620515122304</v>
+        <v>10.65476103211907</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.346997077978779, 13.358243952265829]</t>
+          <t>[6.500964467492922, 14.808557596745208]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.45832081784414e-05</v>
+        <v>5.277268923853384e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.45832081784414e-05</v>
+        <v>5.277268923853384e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5018818818818822</v>
+        <v>22.86498498498513</v>
       </c>
       <c r="Y6" t="n">
-        <v>-5.269759759759792</v>
+        <v>12.00756756756764</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.273523523523557</v>
+        <v>33.72240240240262</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2043795367337493</v>
+        <v>0.4281655047060787</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2043795367337493</v>
+        <v>0.4281655047060787</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.449390462724979</v>
+        <v>3.839512650880838</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.348593729402655, 13.247374654852614]</t>
+          <t>[-3.797335273671042, 11.476360575432718]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1661505437379285</v>
+        <v>0.3166587157032039</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1661505437379285</v>
+        <v>0.3166587157032039</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1698158191129613</v>
+        <v>0.3081842643161155</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.7485004797171975, 3.08813211794312]</t>
+          <t>[-2.8302636518826967, 3.4466321805149276]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.907223118082952</v>
+        <v>0.8441097221776037</v>
       </c>
       <c r="S7" t="n">
-        <v>0.907223118082952</v>
+        <v>0.8441097221776037</v>
       </c>
       <c r="T7" t="n">
-        <v>10.73601548923864</v>
+        <v>10.28600036576777</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.373339131235575, 15.0986918472417]</t>
+          <t>[6.064138580271994, 14.507862151263556]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.06326822024716e-05</v>
+        <v>1.252610354529615e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.06326822024716e-05</v>
+        <v>1.252610354529615e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>22.17405405405417</v>
+        <v>21.852852852853</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.58890890890897</v>
+        <v>10.37435435435443</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.75919919919938</v>
+        <v>33.33135135135158</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05438459945216978</v>
+        <v>0.2058563425488037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05438459945216978</v>
+        <v>0.2058563425488037</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.720066047256581</v>
+        <v>5.117343956681924</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.6488130406076387, 14.0889451351208]</t>
+          <t>[-2.081300694879408, 12.315988608243256]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.07285466786280814</v>
+        <v>0.1591168842048492</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07285466786280814</v>
+        <v>0.1591168842048492</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6478159025420398</v>
+        <v>0.5597632555945777</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.509473947670772, 2.8051057527548515]</t>
+          <t>[-2.578684660604235, 3.6982111717933903]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5483376353240312</v>
+        <v>0.7211040792968135</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5483376353240312</v>
+        <v>0.7211040792968135</v>
       </c>
       <c r="T8" t="n">
-        <v>9.960365588010024</v>
+        <v>10.47003615326804</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.1109976941614, 13.809733481858649]</t>
+          <t>[6.416429534944541, 14.523642771591547]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.533898370073786e-06</v>
+        <v>4.678372762523253e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.533898370073786e-06</v>
+        <v>4.678372762523253e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>20.44028028028039</v>
+        <v>20.93273273273287</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.61548548548555</v>
+        <v>9.454234234234297</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.26507507507523</v>
+        <v>32.41123123123145</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03101992341249393</v>
+        <v>0.1608707058010058</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03101992341249393</v>
+        <v>0.1608707058010058</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.677522029251866</v>
+        <v>5.176145280266761</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.009674600995893456, 15.364718659499625]</t>
+          <t>[-2.2989565636069127, 12.651247124140435]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.05027692277844076</v>
+        <v>0.1699627420799192</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05027692277844076</v>
+        <v>0.1699627420799192</v>
       </c>
       <c r="P9" t="n">
-        <v>1.037763339023655</v>
+        <v>0.735868549489501</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.37107901213573147, 2.446605690183042]</t>
+          <t>[-2.402579366709311, 3.874316465688313]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1448851153898807</v>
+        <v>0.6390343446689428</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1448851153898807</v>
+        <v>0.6390343446689428</v>
       </c>
       <c r="T9" t="n">
-        <v>10.94380105072481</v>
+        <v>10.09868961422808</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.014500171740224, 14.873101929709403]</t>
+          <t>[6.325040691221958, 13.8723385372342]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.18125523917989e-06</v>
+        <v>2.486135894486097e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18125523917989e-06</v>
+        <v>2.486135894486097e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>19.02588588588599</v>
+        <v>20.28864864864878</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.91581581581589</v>
+        <v>8.810150150150209</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.13595595595609</v>
+        <v>31.76714714714736</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02868617464688628</v>
+        <v>0.01716385710706936</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02868617464688628</v>
+        <v>0.01716385710706936</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.96228813852882</v>
+        <v>8.24404140143568</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.07291870560861646, 15.851657571449024]</t>
+          <t>[0.7875537516009867, 15.700529051270374]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.04800649000346158</v>
+        <v>0.03100664406061959</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04800649000346158</v>
+        <v>0.03100664406061959</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9748685912040402</v>
+        <v>0.723289599925578</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.2830263651882685, 2.232763547596349]</t>
+          <t>[-0.06289474781961513, 1.509473947670771]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1255462253846924</v>
+        <v>0.07045027462704656</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1255462253846924</v>
+        <v>0.07045027462704656</v>
       </c>
       <c r="T10" t="n">
-        <v>12.18496471901448</v>
+        <v>10.10952960523418</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.149620327826398, 16.220309110202564]</t>
+          <t>[6.17623186642864, 14.042827344039711]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.36129442221511e-07</v>
+        <v>5.095952321232389e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>2.36129442221511e-07</v>
+        <v>5.095952321232389e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>19.25401401401412</v>
+        <v>20.33465465465479</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.69145145145153</v>
+        <v>17.4592792792794</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.8165765765767</v>
+        <v>23.21003003003018</v>
       </c>
     </row>
     <row r="11">
@@ -1361,63 +1361,63 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0359636735663742</v>
+        <v>0.07327959995442634</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0359636735663742</v>
+        <v>0.07327959995442634</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.492419774794009</v>
+        <v>6.918748947821767</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.005612637059845937, 14.990452186647865]</t>
+          <t>[-1.0690563956452763, 14.90655429128881]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05016454793898784</v>
+        <v>0.08789149828615628</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05016454793898784</v>
+        <v>0.08789149828615628</v>
       </c>
       <c r="P11" t="n">
-        <v>1.125815985971117</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.3710790121357306, 2.6227109840779654]</t>
+          <t>[-1.9811845563178871, 3.6541848483196593]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1368139547710958</v>
+        <v>0.552879552656476</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1368139547710958</v>
+        <v>0.552879552656476</v>
       </c>
       <c r="T11" t="n">
-        <v>10.77039677052203</v>
+        <v>11.10469549201754</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.819529927903439, 14.721263613140618]</t>
+          <t>[6.925851952188564, 15.283539031846518]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.768749589681207e-06</v>
+        <v>2.824079983199113e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.768749589681207e-06</v>
+        <v>2.824079983199113e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>19.15795795795813</v>
+        <v>20.23267267267286</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5974774774776</v>
+        <v>9.765885885885975</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.71843843843866</v>
+        <v>30.69945945945974</v>
       </c>
     </row>
     <row r="12">
@@ -1447,63 +1447,63 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1817957476248666</v>
+        <v>0.3604214154287395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1817957476248666</v>
+        <v>0.3604214154287395</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.067158302060509</v>
+        <v>4.895218210046587</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.175173726077883, 14.309490330198901]</t>
+          <t>[-3.462252403778794, 13.252688823871967]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1451569888999797</v>
+        <v>0.2443108497088602</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1451569888999797</v>
+        <v>0.2443108497088602</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83023716155081</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.1509738850989635, 4.811448208200584]</t>
+          <t>[-1.4402897250691957, 4.67307976299743]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2226852978940033</v>
+        <v>0.2925253396681089</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2226852978940033</v>
+        <v>0.2925253396681089</v>
       </c>
       <c r="T12" t="n">
-        <v>11.44176394048774</v>
+        <v>9.801417024438674</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.904951562468538, 15.97857631850694]</t>
+          <t>[5.040150498767991, 14.562683550109357]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.055589626991932e-06</v>
+        <v>0.0001475667964419003</v>
       </c>
       <c r="W12" t="n">
-        <v>7.055589626991932e-06</v>
+        <v>0.0001475667964419003</v>
       </c>
       <c r="X12" t="n">
-        <v>16.54126126126141</v>
+        <v>17.33561561561577</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.467027027027077</v>
+        <v>5.981021021021073</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.61549549549574</v>
+        <v>28.69021021021047</v>
       </c>
     </row>
     <row r="13">
@@ -1533,63 +1533,63 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05256650229343074</v>
+        <v>0.09565038489869382</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05256650229343074</v>
+        <v>0.09565038489869382</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.596109052978584</v>
+        <v>6.18824268382681</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.47892992383414956, 13.671148029791318]</t>
+          <t>[-1.2021685228537038, 13.578653890507324]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.06690360631001768</v>
+        <v>0.0986259466135555</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06690360631001768</v>
+        <v>0.0986259466135555</v>
       </c>
       <c r="P13" t="n">
-        <v>2.132131951084965</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.4465527095192696, 3.81771119265066]</t>
+          <t>[-0.8427896207828471, 5.308316715975545]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0143299778446806</v>
+        <v>0.1506406466774584</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0143299778446806</v>
+        <v>0.1506406466774584</v>
       </c>
       <c r="T13" t="n">
-        <v>9.453730856557099</v>
+        <v>10.14986791227105</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.72945550733767, 13.178006205776528]</t>
+          <t>[6.196479569439702, 14.103256255102398]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.31683744023448e-06</v>
+        <v>5.195280238901034e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>6.31683744023448e-06</v>
+        <v>5.195280238901034e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>15.41981981981996</v>
+        <v>15.04600600600614</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.15843843843852</v>
+        <v>3.621321321321359</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6812012012014</v>
+        <v>26.47069069069093</v>
       </c>
     </row>
     <row r="14">
@@ -1619,63 +1619,63 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07235972354901887</v>
+        <v>0.0814773890387841</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07235972354901887</v>
+        <v>0.0814773890387841</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.50745774728236</v>
+        <v>6.568234536552199</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.9027454460786526, 13.917660940643373]</t>
+          <t>[-0.5590920251893312, 13.695561098293728]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.08371581106351322</v>
+        <v>0.06999307454988291</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08371581106351322</v>
+        <v>0.06999307454988291</v>
       </c>
       <c r="P14" t="n">
-        <v>1.968605606753964</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.20755266780473125, 3.729658545703196]</t>
+          <t>[0.2327105669325773, 3.3522900587855053]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.02928419232477908</v>
+        <v>0.02525530895977957</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02928419232477908</v>
+        <v>0.02525530895977957</v>
       </c>
       <c r="T14" t="n">
-        <v>10.07359160882646</v>
+        <v>11.02239541792905</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.181515791641576, 13.96566742601134]</t>
+          <t>[7.008127023952122, 15.036663811905987]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.51253534783369e-06</v>
+        <v>1.546022902809696e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>4.51253534783369e-06</v>
+        <v>1.546022902809696e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>16.02726726726742</v>
+        <v>16.68144144144159</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.485525525525619</v>
+        <v>10.88732732732743</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.56900900900921</v>
+        <v>22.47555555555576</v>
       </c>
     </row>
     <row r="15">
@@ -1705,63 +1705,63 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07352351468372886</v>
+        <v>0.1397659330645575</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07352351468372886</v>
+        <v>0.1397659330645575</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.852489257128399</v>
+        <v>5.772594521954358</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.7455920459963536, 14.450570560253151]</t>
+          <t>[-2.0161168848256708, 13.561305928734386]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.07596420120441949</v>
+        <v>0.1424810388191291</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07596420120441949</v>
+        <v>0.1424810388191291</v>
       </c>
       <c r="P15" t="n">
-        <v>1.930868758062195</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 3.629026949191812]</t>
+          <t>[-0.9622896416401163, 5.176237745554354]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.02675540314325442</v>
+        <v>0.1736010802440977</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02675540314325442</v>
+        <v>0.1736010802440977</v>
       </c>
       <c r="T15" t="n">
-        <v>11.17505214839219</v>
+        <v>9.334006453504571</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.066780623534629, 15.28332367324975]</t>
+          <t>[5.305605330448041, 13.3624075765611]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.84200134856205e-06</v>
+        <v>2.765181850916676e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>1.84200134856205e-06</v>
+        <v>2.765181850916676e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>16.16744744744759</v>
+        <v>15.51327327327341</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.859339339339432</v>
+        <v>4.111951951951989</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.47555555555575</v>
+        <v>26.91459459459483</v>
       </c>
     </row>
     <row r="16">
@@ -1791,63 +1791,63 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1832091790914205</v>
+        <v>0.1236936183100537</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1832091790914205</v>
+        <v>0.1236936183100537</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.022647290057931</v>
+        <v>6.088364424894834</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.3093801503319646, 12.354674730447826]</t>
+          <t>[-1.9711862951521724, 14.147915144941841]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1744910072918162</v>
+        <v>0.1351312397406514</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1744910072918162</v>
+        <v>0.1351312397406514</v>
       </c>
       <c r="P16" t="n">
-        <v>2.673026782333658</v>
+        <v>2.496921488438735</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.45913165908319353, 5.805185223750509]</t>
+          <t>[-0.6037895790683088, 5.597632555945778]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.09251255945607517</v>
+        <v>0.1118103046381176</v>
       </c>
       <c r="S16" t="n">
-        <v>0.09251255945607517</v>
+        <v>0.1118103046381176</v>
       </c>
       <c r="T16" t="n">
-        <v>11.27059352269528</v>
+        <v>10.82360214173512</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[7.429515578841924, 15.111671466548644]</t>
+          <t>[6.663011840432347, 14.984192443037891]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.248725613553717e-07</v>
+        <v>4.126184258490539e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>4.248725613553717e-07</v>
+        <v>4.126184258490539e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>13.41057057057069</v>
+        <v>14.06474474474487</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.775615615615633</v>
+        <v>2.546606606606629</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.04552552552575</v>
+        <v>25.58288288288311</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1877,63 +1877,63 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02525501050637702</v>
+        <v>0.1715296370609134</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02525501050637702</v>
+        <v>0.1715296370609134</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.897796114317606</v>
+        <v>5.41605154458494</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.1800701811581078, 13.615522047477103]</t>
+          <t>[-2.501993536831659, 13.33409662600154]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.04440809770812693</v>
+        <v>0.1751171758109997</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04440809770812693</v>
+        <v>0.1751171758109997</v>
       </c>
       <c r="P17" t="n">
-        <v>2.597553084950119</v>
+        <v>2.484342538874811</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.3145002294299637, 3.880605940470275]</t>
+          <t>[-0.5723422051585008, 5.541027282908123]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.0001830853901876317</v>
+        <v>0.1086107490177524</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001830853901876317</v>
+        <v>0.1086107490177524</v>
       </c>
       <c r="T17" t="n">
-        <v>10.35202356534477</v>
+        <v>8.911079260263648</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[6.853121357697535, 13.850925772992007]</t>
+          <t>[4.871181069919485, 12.95097745060781]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.591670227898192e-07</v>
+        <v>5.729811128030171e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>3.591670227898192e-07</v>
+        <v>5.729811128030171e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>13.69093093093105</v>
+        <v>14.1114714714716</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.924804804804884</v>
+        <v>2.756876876876902</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.45705705705722</v>
+        <v>25.46606606606629</v>
       </c>
     </row>
     <row r="18">
@@ -1963,63 +1963,63 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01996935192621352</v>
+        <v>0.02266427452184172</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01996935192621352</v>
+        <v>0.02266427452184172</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>7.517000972508152</v>
+        <v>7.357523002455585</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.5228374044627895, 14.511164540553514]</t>
+          <t>[0.7363911880316696, 13.9786548168795]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.03575640549257941</v>
+        <v>0.03020778563136584</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03575640549257941</v>
+        <v>0.03020778563136584</v>
       </c>
       <c r="P18" t="n">
-        <v>2.685605731897581</v>
+        <v>2.773658378845042</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 3.855448041342429]</t>
+          <t>[1.4402897250691944, 4.1070270326208895]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.182584541749911e-05</v>
+        <v>0.0001286066835939348</v>
       </c>
       <c r="S18" t="n">
-        <v>3.182584541749911e-05</v>
+        <v>0.0001286066835939348</v>
       </c>
       <c r="T18" t="n">
-        <v>9.957774494642671</v>
+        <v>10.48164612420256</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[6.26738580078181, 13.648163188503531]</t>
+          <t>[6.795909085650958, 14.167383162754156]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.13756444678026e-06</v>
+        <v>7.903952781163071e-07</v>
       </c>
       <c r="W18" t="n">
-        <v>2.13756444678026e-06</v>
+        <v>7.903952781163071e-07</v>
       </c>
       <c r="X18" t="n">
-        <v>13.36384384384396</v>
+        <v>13.03675675675688</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.018258258258339</v>
+        <v>8.0837237237238</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.70942942942959</v>
+        <v>17.98978978978995</v>
       </c>
     </row>
     <row r="19">
@@ -2049,63 +2049,63 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06089611569943842</v>
+        <v>0.1669949196295164</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06089611569943842</v>
+        <v>0.1669949196295164</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>7.043798866261829</v>
+        <v>5.889812938818253</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.29826396138273736, 13.789333771140921]</t>
+          <t>[-2.173395441006102, 13.953021318642607]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.04107518979082481</v>
+        <v>0.1481925976295846</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04107518979082481</v>
+        <v>0.1481925976295846</v>
       </c>
       <c r="P19" t="n">
-        <v>3.100711067507043</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1.7547634641672722, 4.446658670846814]</t>
+          <t>[0.03144737390980801, 5.6416588794195075]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.018620907879743e-05</v>
+        <v>0.04759102266067239</v>
       </c>
       <c r="S19" t="n">
-        <v>3.018620907879743e-05</v>
+        <v>0.04759102266067239</v>
       </c>
       <c r="T19" t="n">
-        <v>10.9435722268779</v>
+        <v>10.46810482945806</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[6.783338523391197, 15.103805930364597]</t>
+          <t>[6.073214308801786, 14.862995350114334]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>3.388609140397847e-06</v>
+        <v>1.800547562935684e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>3.388609140397847e-06</v>
+        <v>1.800547562935684e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>11.82186186186197</v>
+        <v>12.80312312312324</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.822102102102165</v>
+        <v>2.383063063063087</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.82162162162177</v>
+        <v>23.22318318318339</v>
       </c>
     </row>
     <row r="20">
@@ -2113,7 +2113,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2135,63 +2135,63 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03291303899397136</v>
+        <v>0.2079180607185245</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03291303899397136</v>
+        <v>0.2079180607185245</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>6.694665120028889</v>
+        <v>4.851949739769628</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0.813997738751377, 12.5753325013064]</t>
+          <t>[-2.0294064768870914, 11.733305956426348]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.02658091860868317</v>
+        <v>0.1624652294243898</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02658091860868317</v>
+        <v>0.1624652294243898</v>
       </c>
       <c r="P20" t="n">
-        <v>3.125868966634889</v>
+        <v>2.962342622303889</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[1.9057108589343486, 4.34602707433543]</t>
+          <t>[0.4339737599553475, 5.490711484652431]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.392884525390329e-06</v>
+        <v>0.02268172976215266</v>
       </c>
       <c r="S20" t="n">
-        <v>5.392884525390329e-06</v>
+        <v>0.02268172976215266</v>
       </c>
       <c r="T20" t="n">
-        <v>10.12147685573645</v>
+        <v>9.631716178147585</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[6.562476591560136, 13.68047711991276]</t>
+          <t>[5.751100346174353, 13.512332010120815]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>7.900149054940186e-07</v>
+        <v>9.229199512850172e-06</v>
       </c>
       <c r="W20" t="n">
-        <v>7.900149054940186e-07</v>
+        <v>9.229199512850172e-06</v>
       </c>
       <c r="X20" t="n">
-        <v>11.72840840840851</v>
+        <v>12.33585585585596</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.19591591591598</v>
+        <v>2.943783783783809</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.26090090090105</v>
+        <v>21.72792792792812</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_4_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_4_sawtooth_10_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03754871565727036</v>
+        <v>0.09474787159872999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03754871565727036</v>
+        <v>0.09474787159872999</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.825603037872828</v>
+        <v>6.564556753007995</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.45615190123026395, 15.195054174515391]</t>
+          <t>[-0.8815096712905017, 14.010623177306492]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.03791681414526971</v>
+        <v>0.08255138898574388</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03791681414526971</v>
+        <v>0.08255138898574388</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.295631805084079</v>
+        <v>-1.308210754648002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.6415794084238504, 0.05031579825569299]</t>
+          <t>[-3.018947895341543, 0.4025263860455395]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.05881129234356797</v>
+        <v>0.1305155831004376</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05881129234356797</v>
+        <v>0.1305155831004376</v>
       </c>
       <c r="T2" t="n">
-        <v>10.9501751327154</v>
+        <v>10.57477803470298</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.826052812733495, 15.074297452697307]</t>
+          <t>[6.4461542451644025, 14.703401824241565]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.866767883080712e-06</v>
+        <v>5.411965793511442e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.866767883080712e-06</v>
+        <v>5.411965793511442e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>4.738618618618649</v>
+        <v>4.784624624624655</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.184024024024029</v>
+        <v>-1.472192192192204</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.661261261261327</v>
+        <v>11.04144144144151</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08089733625589701</v>
+        <v>0.1052130449860886</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08089733625589701</v>
+        <v>0.1052130449860886</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.020726726492514</v>
+        <v>6.1763249361892</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.5786950531838926, 15.62014850616892]</t>
+          <t>[-1.5371065038088823, 13.889756376187282]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1070728469732614</v>
+        <v>0.1137931696364709</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1070728469732614</v>
+        <v>0.1137931696364709</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-0.729579074707539</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.000105961327545, 2.163579324994773]</t>
+          <t>[-3.792553293522812, 2.333395144107734]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5514361872631532</v>
+        <v>0.6337320836714735</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5514361872631532</v>
+        <v>0.6337320836714735</v>
       </c>
       <c r="T3" t="n">
-        <v>11.71968008598462</v>
+        <v>11.89685492893211</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.392503997171591, 16.04685617479765]</t>
+          <t>[7.834115368417909, 15.959594489446307]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.995550781730415e-06</v>
+        <v>4.425945137054299e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.995550781730415e-06</v>
+        <v>4.425945137054299e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.358438438438462</v>
+        <v>2.668348348348363</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.913033033033088</v>
+        <v>-8.534114114114169</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.62990990991001</v>
+        <v>13.8708108108109</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09197134211497859</v>
+        <v>0.2956226227840433</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09197134211497859</v>
+        <v>0.2956226227840433</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.670652056766702</v>
+        <v>4.153129698981427</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.093815209855201, 12.435119323388605]</t>
+          <t>[-3.2056256362920443, 11.511885034254899]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.09824954537244257</v>
+        <v>0.2616731544283413</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09824954537244257</v>
+        <v>0.2616731544283413</v>
       </c>
       <c r="P4" t="n">
         <v>-0.6415264277600778</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.635316423973775, 2.3522635684536195]</t>
+          <t>[-3.7736848691769294, 2.4906320136567737]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.6680976392579634</v>
+        <v>0.6819118904452923</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6680976392579634</v>
+        <v>0.6819118904452923</v>
       </c>
       <c r="T4" t="n">
-        <v>10.4433792516216</v>
+        <v>9.643726177427041</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.812580781949684, 14.074177721293516]</t>
+          <t>[5.875663489332647, 13.411788865521435]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.324500578802628e-07</v>
+        <v>5.485508158376007e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>6.324500578802628e-07</v>
+        <v>5.485508158376007e-06</v>
       </c>
       <c r="X4" t="n">
         <v>2.346306306306321</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.603123123123185</v>
+        <v>-9.109189189189253</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.29573573573583</v>
+        <v>13.8018018018019</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08004201173043302</v>
+        <v>0.3779867487399934</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08004201173043302</v>
+        <v>0.3779867487399934</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.192955876475649</v>
+        <v>4.021578049985233</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.4840497460440325, 12.86996149899533]</t>
+          <t>[-3.8840175109695316, 11.927173610939997]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06826899846070766</v>
+        <v>0.3110402724106243</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06826899846070766</v>
+        <v>0.3110402724106243</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1761052938949232</v>
+        <v>-0.5408948312486928</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.7421845146033483, 1.3899739268135018]</t>
+          <t>[-3.641605898755736, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8218494894721877</v>
+        <v>0.7269696058478909</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8218494894721877</v>
+        <v>0.7269696058478909</v>
       </c>
       <c r="T5" t="n">
-        <v>10.78063783707181</v>
+        <v>9.743465074848576</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.894274700580736, 14.667000973562894]</t>
+          <t>[5.631635688047613, 13.855294461649539]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.27539949801303e-06</v>
+        <v>1.953212253558156e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27539949801303e-06</v>
+        <v>1.953212253558156e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6440840840840885</v>
+        <v>1.978258258258272</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.083663663663696</v>
+        <v>-9.362222222222284</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.371831831831873</v>
+        <v>13.31873873873883</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2007813246533766</v>
+        <v>0.1182718592059622</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2007813246533766</v>
+        <v>0.1182718592059622</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.222742669317155</v>
+        <v>5.763585697877438</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.9787763774382316, 12.424261716072541]</t>
+          <t>[-0.9839657506432875, 12.511137146398163]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1510496082943953</v>
+        <v>0.0922312960878271</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1510496082943953</v>
+        <v>0.0922312960878271</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03144737390980801</v>
+        <v>-0.1132105460753081</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.9371847231760424, 3.0000794709956584]</t>
+          <t>[-1.7170266154755032, 1.490605523324887]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9830720800360933</v>
+        <v>0.8875787818172858</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9830720800360933</v>
+        <v>0.8875787818172858</v>
       </c>
       <c r="T6" t="n">
-        <v>10.65476103211907</v>
+        <v>9.880924282225259</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.500964467492922, 14.808557596745208]</t>
+          <t>[5.921855735804975, 13.839992828645542]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.277268923853384e-06</v>
+        <v>8.41503419723999e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>5.277268923853384e-06</v>
+        <v>8.41503419723999e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>22.86498498498513</v>
+        <v>0.4140540540540592</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.00756756756764</v>
+        <v>-5.451711711711748</v>
       </c>
       <c r="Z6" t="n">
-        <v>33.72240240240262</v>
+        <v>6.279819819819866</v>
       </c>
     </row>
     <row r="7">
@@ -1017,63 +1017,63 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4281655047060787</v>
+        <v>0.2622114125790432</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4281655047060787</v>
+        <v>0.2622114125790432</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.839512650880838</v>
+        <v>4.771108915132439</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-3.797335273671042, 11.476360575432718]</t>
+          <t>[-2.866540747428477, 12.408758577693355]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3166587157032039</v>
+        <v>0.2148174373576668</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3166587157032039</v>
+        <v>0.2148174373576668</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3081842643161155</v>
+        <v>0.4968685077749617</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.8302636518826967, 3.4466321805149276]</t>
+          <t>[-2.6164215092960044, 3.610158524845928]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8441097221776037</v>
+        <v>0.7493632057246691</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8441097221776037</v>
+        <v>0.7493632057246691</v>
       </c>
       <c r="T7" t="n">
-        <v>10.28600036576777</v>
+        <v>9.808861030749206</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.064138580271994, 14.507862151263556]</t>
+          <t>[5.682322525804764, 13.935399535693648]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.252610354529615e-05</v>
+        <v>1.859613340138289e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.252610354529615e-05</v>
+        <v>1.859613340138289e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>21.852852852853</v>
+        <v>21.16276276276291</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.37435435435443</v>
+        <v>9.776276276276343</v>
       </c>
       <c r="Z7" t="n">
-        <v>33.33135135135158</v>
+        <v>32.54924924924947</v>
       </c>
     </row>
     <row r="8">
@@ -1103,63 +1103,63 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2058563425488037</v>
+        <v>0.2289475615141242</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2058563425488037</v>
+        <v>0.2289475615141242</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.117343956681924</v>
+        <v>4.5371713071558</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.081300694879408, 12.315988608243256]</t>
+          <t>[-2.5711284366173306, 11.645471050928931]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1591168842048492</v>
+        <v>0.2051642001745981</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1591168842048492</v>
+        <v>0.2051642001745981</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5597632555945777</v>
+        <v>0.4088158608275005</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.578684660604235, 3.6982111717933903]</t>
+          <t>[-2.5409478119124658, 3.358579533567467]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7211040792968135</v>
+        <v>0.7814162077966087</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7211040792968135</v>
+        <v>0.7814162077966087</v>
       </c>
       <c r="T8" t="n">
-        <v>10.47003615326804</v>
+        <v>9.100660884815042</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.416429534944541, 14.523642771591547]</t>
+          <t>[5.360420921215956, 12.840900848414128]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.678372762523253e-06</v>
+        <v>1.279578706170348e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.678372762523253e-06</v>
+        <v>1.279578706170348e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>20.93273273273287</v>
+        <v>21.48480480480495</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.454234234234297</v>
+        <v>10.69639639639647</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.41123123123145</v>
+        <v>32.27321321321343</v>
       </c>
     </row>
     <row r="9">
@@ -1189,63 +1189,63 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1608707058010058</v>
+        <v>0.1049462754080347</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1608707058010058</v>
+        <v>0.1049462754080347</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.176145280266761</v>
+        <v>5.768870435338408</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.2989565636069127, 12.651247124140435]</t>
+          <t>[-1.0497878622897048, 12.58752873296652]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1699627420799192</v>
+        <v>0.09527510355197011</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1699627420799192</v>
+        <v>0.09527510355197011</v>
       </c>
       <c r="P9" t="n">
-        <v>0.735868549489501</v>
+        <v>1.050342288587577</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.402579366709311, 3.874316465688313]</t>
+          <t>[-1.5535002711445038, 3.654184848319659]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6390343446689428</v>
+        <v>0.4208095547383481</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6390343446689428</v>
+        <v>0.4208095547383481</v>
       </c>
       <c r="T9" t="n">
-        <v>10.09868961422808</v>
+        <v>10.58228621281598</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.325040691221958, 13.8723385372342]</t>
+          <t>[6.854780703828345, 14.309791721803608]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.486135894486097e-06</v>
+        <v>8.172184207122513e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.486135894486097e-06</v>
+        <v>8.172184207122513e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>20.28864864864878</v>
+        <v>19.13849849849863</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.810150150150209</v>
+        <v>9.615255255255319</v>
       </c>
       <c r="Z9" t="n">
-        <v>31.76714714714736</v>
+        <v>28.66174174174193</v>
       </c>
     </row>
     <row r="10">
@@ -1275,63 +1275,63 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01716385710706936</v>
+        <v>0.05233510790538343</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01716385710706936</v>
+        <v>0.05233510790538343</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.24404140143568</v>
+        <v>7.429721261154622</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.7875537516009867, 15.700529051270374]</t>
+          <t>[-0.6106337631879413, 15.470076285497186]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.03100664406061959</v>
+        <v>0.06926480751729214</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03100664406061959</v>
+        <v>0.06926480751729214</v>
       </c>
       <c r="P10" t="n">
-        <v>0.723289599925578</v>
+        <v>0.635236952978115</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.06289474781961513, 1.509473947670771]</t>
+          <t>[-1.4340002502872329, 2.704474156243463]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.07045027462704656</v>
+        <v>0.5394872580914898</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07045027462704656</v>
+        <v>0.5394872580914898</v>
       </c>
       <c r="T10" t="n">
-        <v>10.10952960523418</v>
+        <v>10.55211974134311</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.17623186642864, 14.042827344039711]</t>
+          <t>[6.322088318943123, 14.782151163743087]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.095952321232389e-06</v>
+        <v>8.482964709122243e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.095952321232389e-06</v>
+        <v>8.482964709122243e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>20.33465465465479</v>
+        <v>20.65669669669684</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.4592792792794</v>
+        <v>13.08870870870881</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.21003003003018</v>
+        <v>28.22468468468487</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07327959995442634</v>
+        <v>0.07864217682462005</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07327959995442634</v>
+        <v>0.07864217682462005</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.918748947821767</v>
+        <v>6.386818173245421</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.0690563956452763, 14.90655429128881]</t>
+          <t>[-0.9972187656542051, 13.770855112145046]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.08789149828615628</v>
+        <v>0.08832323650732143</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08789149828615628</v>
+        <v>0.08832323650732143</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8365001460008861</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.9811845563178871, 3.6541848483196593]</t>
+          <t>[-0.5975001042863468, 2.974921571867812]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.552879552656476</v>
+        <v>0.1868528819302679</v>
       </c>
       <c r="S11" t="n">
-        <v>0.552879552656476</v>
+        <v>0.1868528819302679</v>
       </c>
       <c r="T11" t="n">
-        <v>11.10469549201754</v>
+        <v>9.859514826046222</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.925851952188564, 15.283539031846518]</t>
+          <t>[5.977432971022898, 13.741596681069547]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.824079983199113e-06</v>
+        <v>6.260005021685444e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.824079983199113e-06</v>
+        <v>6.260005021685444e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>20.23267267267286</v>
+        <v>18.97297297297315</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.765885885885975</v>
+        <v>12.32072072072084</v>
       </c>
       <c r="Z11" t="n">
-        <v>30.69945945945974</v>
+        <v>25.62522522522546</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3604214154287395</v>
+        <v>0.08173273079202459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3604214154287395</v>
+        <v>0.08173273079202459</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.895218210046587</v>
+        <v>6.776241765099731</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.462252403778794, 13.252688823871967]</t>
+          <t>[-0.15206216187292299, 13.704545692072385]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2443108497088602</v>
+        <v>0.05502330231732566</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2443108497088602</v>
+        <v>0.05502330231732566</v>
       </c>
       <c r="P12" t="n">
-        <v>1.616395018964117</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.4402897250691957, 4.67307976299743]</t>
+          <t>[0.1823947686768852, 3.075553168379197]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2925253396681089</v>
+        <v>0.02817417102223541</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2925253396681089</v>
+        <v>0.02817417102223541</v>
       </c>
       <c r="T12" t="n">
-        <v>9.801417024438674</v>
+        <v>10.44964216020253</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.040150498767991, 14.562683550109357]</t>
+          <t>[6.313913930532831, 14.585370389872224]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0.0001475667964419003</v>
+        <v>6.836250380004572e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0001475667964419003</v>
+        <v>6.836250380004572e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>17.33561561561577</v>
+        <v>17.33333333333349</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.981021021021073</v>
+        <v>11.94594594594605</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.69021021021047</v>
+        <v>22.72072072072093</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09565038489869382</v>
+        <v>0.1183346594474266</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09565038489869382</v>
+        <v>0.1183346594474266</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.18824268382681</v>
+        <v>5.93352141148526</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.2021685228537038, 13.578653890507324]</t>
+          <t>[-1.386570856394, 13.25361367936452]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0986259466135555</v>
+        <v>0.1095337492508668</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0986259466135555</v>
+        <v>0.1095337492508668</v>
       </c>
       <c r="P13" t="n">
-        <v>2.232763547596349</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.8427896207828471, 5.308316715975545]</t>
+          <t>[-0.4465527095192696, 4.434079721282891]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1506406466774584</v>
+        <v>0.1068259266360136</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1506406466774584</v>
+        <v>0.1068259266360136</v>
       </c>
       <c r="T13" t="n">
-        <v>10.14986791227105</v>
+        <v>9.436932684267113</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.196479569439702, 14.103256255102398]</t>
+          <t>[5.4770572549210454, 13.39680811361318]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.195280238901034e-06</v>
+        <v>1.785565347733886e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>5.195280238901034e-06</v>
+        <v>1.785565347733886e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>15.04600600600614</v>
+        <v>15.97477477477493</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.621321321321359</v>
+        <v>6.886486486486552</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.47069069069093</v>
+        <v>25.0630630630633</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0814773890387841</v>
+        <v>0.08782246936088167</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0814773890387841</v>
+        <v>0.08782246936088167</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.568234536552199</v>
+        <v>6.19879689065705</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.5590920251893312, 13.695561098293728]</t>
+          <t>[-1.2818641875657644, 13.679457968879865]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06999307454988291</v>
+        <v>0.1020667133655853</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06999307454988291</v>
+        <v>0.1020667133655853</v>
       </c>
       <c r="P14" t="n">
-        <v>1.792500312859041</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 3.3522900587855053]</t>
+          <t>[-0.8993948938205021, 5.3649219890132]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.02525530895977957</v>
+        <v>0.1579869130993461</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02525530895977957</v>
+        <v>0.1579869130993461</v>
       </c>
       <c r="T14" t="n">
-        <v>11.02239541792905</v>
+        <v>9.59619617096042</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.008127023952122, 15.036663811905987]</t>
+          <t>[5.7170607145186585, 13.47533162740218]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.546022902809696e-06</v>
+        <v>9.751360213972049e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>1.546022902809696e-06</v>
+        <v>9.751360213972049e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>16.68144144144159</v>
+        <v>15.08468468468483</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.88732732732743</v>
+        <v>3.419819819819852</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.47555555555576</v>
+        <v>26.7495495495498</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1397659330645575</v>
+        <v>0.02779000300740353</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1397659330645575</v>
+        <v>0.02779000300740353</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.772594521954358</v>
+        <v>6.696130325784151</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.0161168848256708, 13.561305928734386]</t>
+          <t>[0.3037112118893024, 13.088549439679]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1424810388191291</v>
+        <v>0.04046976491295751</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1424810388191291</v>
+        <v>0.04046976491295751</v>
       </c>
       <c r="P15" t="n">
-        <v>2.106974051957119</v>
+        <v>1.943447707626118</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.9622896416401163, 5.176237745554354]</t>
+          <t>[0.6981317007977319, 3.1887637144545034]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1736010802440977</v>
+        <v>0.002955529498028575</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1736010802440977</v>
+        <v>0.002955529498028575</v>
       </c>
       <c r="T15" t="n">
-        <v>9.334006453504571</v>
+        <v>9.396871268004098</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.305605330448041, 13.3624075765611]</t>
+          <t>[6.006515714349602, 12.787226821658594]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.765181850916676e-05</v>
+        <v>1.295773009113432e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>2.765181850916676e-05</v>
+        <v>1.295773009113432e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>15.51327327327341</v>
+        <v>16.16216216216232</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.111951951951989</v>
+        <v>11.52432432432444</v>
       </c>
       <c r="Z15" t="n">
-        <v>26.91459459459483</v>
+        <v>20.8000000000002</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1236936183100537</v>
+        <v>0.09568642532599081</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1236936183100537</v>
+        <v>0.09568642532599081</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>6.088364424894834</v>
+        <v>6.12950549147534</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-1.9711862951521724, 14.147915144941841]</t>
+          <t>[-1.2332357325492236, 13.492246715499903]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1351312397406514</v>
+        <v>0.1005264499733962</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1351312397406514</v>
+        <v>0.1005264499733962</v>
       </c>
       <c r="P16" t="n">
-        <v>2.496921488438735</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 5.597632555945778]</t>
+          <t>[-0.779894872963232, 5.094474573388854]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1118103046381176</v>
+        <v>0.1460245530443522</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1118103046381176</v>
+        <v>0.1460245530443522</v>
       </c>
       <c r="T16" t="n">
-        <v>10.82360214173512</v>
+        <v>10.27370692657517</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[6.663011840432347, 14.984192443037891]</t>
+          <t>[6.365519205804848, 14.18189464734549]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.126184258490539e-06</v>
+        <v>3.42915723239301e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>4.126184258490539e-06</v>
+        <v>3.42915723239301e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>14.06474474474487</v>
+        <v>15.36576576576591</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.546606606606629</v>
+        <v>4.427027027027068</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.58288288288311</v>
+        <v>26.30450450450475</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1715296370609134</v>
+        <v>0.04260939738063652</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1715296370609134</v>
+        <v>0.04260939738063652</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>5.41605154458494</v>
+        <v>6.647038471164715</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-2.501993536831659, 13.33409662600154]</t>
+          <t>[-0.33355541274795897, 13.627632355077388]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1751171758109997</v>
+        <v>0.06148797616393487</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1751171758109997</v>
+        <v>0.06148797616393487</v>
       </c>
       <c r="P17" t="n">
-        <v>2.484342538874811</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-0.5723422051585008, 5.541027282908123]</t>
+          <t>[0.35850006257180844, 4.534711317794276]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1086107490177524</v>
+        <v>0.02267682110889724</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1086107490177524</v>
+        <v>0.02267682110889724</v>
       </c>
       <c r="T17" t="n">
-        <v>8.911079260263648</v>
+        <v>10.12930557653678</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[4.871181069919485, 12.95097745060781]</t>
+          <t>[6.483734186486881, 13.774876966586671]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5.729811128030171e-05</v>
+        <v>1.236261881309986e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>5.729811128030171e-05</v>
+        <v>1.236261881309986e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>14.1114714714716</v>
+        <v>14.28828828828842</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.756876876876902</v>
+        <v>6.511711711711773</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.46606606606629</v>
+        <v>22.06486486486507</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02266427452184172</v>
+        <v>0.09379313091506514</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02266427452184172</v>
+        <v>0.09379313091506514</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>7.357523002455585</v>
+        <v>5.950305235797314</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.7363911880316696, 13.9786548168795]</t>
+          <t>[-1.0498080011291577, 12.950418472723786]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.03020778563136584</v>
+        <v>0.09377226129527694</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03020778563136584</v>
+        <v>0.09377226129527694</v>
       </c>
       <c r="P18" t="n">
-        <v>2.773658378845042</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[1.4402897250691944, 4.1070270326208895]</t>
+          <t>[-0.13836844520315417, 5.358632514231238]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.0001286066835939348</v>
+        <v>0.06216261904358156</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0001286066835939348</v>
+        <v>0.06216261904358156</v>
       </c>
       <c r="T18" t="n">
-        <v>10.48164612420256</v>
+        <v>9.837674651081254</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[6.795909085650958, 14.167383162754156]</t>
+          <t>[6.019742388807064, 13.655606913355445]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>7.903952781163071e-07</v>
+        <v>4.878331793634061e-06</v>
       </c>
       <c r="W18" t="n">
-        <v>7.903952781163071e-07</v>
+        <v>4.878331793634061e-06</v>
       </c>
       <c r="X18" t="n">
-        <v>13.03675675675688</v>
+        <v>13.67927927927941</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.0837237237238</v>
+        <v>3.443243243243279</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.98978978978995</v>
+        <v>23.91531531531554</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1669949196295164</v>
+        <v>0.2770550244262733</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1669949196295164</v>
+        <v>0.2770550244262733</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>5.889812938818253</v>
+        <v>4.526801895876416</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-2.173395441006102, 13.953021318642607]</t>
+          <t>[-2.8732722392223202, 11.926876030975151]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.1481925976295846</v>
+        <v>0.2243202272391038</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1481925976295846</v>
+        <v>0.2243202272391038</v>
       </c>
       <c r="P19" t="n">
         <v>2.836553126664658</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[0.03144737390980801, 5.6416588794195075]</t>
+          <t>[-0.10063159651138509, 5.7737378498407015]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.04759102266067239</v>
+        <v>0.05802756155598088</v>
       </c>
       <c r="S19" t="n">
-        <v>0.04759102266067239</v>
+        <v>0.05802756155598088</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46810482945806</v>
+        <v>10.29601944536047</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[6.073214308801786, 14.862995350114334]</t>
+          <t>[6.291832582503307, 14.300206308217636]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1.800547562935684e-05</v>
+        <v>5.059225859360694e-06</v>
       </c>
       <c r="W19" t="n">
-        <v>1.800547562935684e-05</v>
+        <v>5.059225859360694e-06</v>
       </c>
       <c r="X19" t="n">
-        <v>12.80312312312324</v>
+        <v>12.83603603603616</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.383063063063087</v>
+        <v>1.897297297297314</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.22318318318339</v>
+        <v>23.774774774775</v>
       </c>
     </row>
     <row r="20">
@@ -2113,7 +2113,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2079180607185245</v>
+        <v>0.0345088867911727</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2079180607185245</v>
+        <v>0.0345088867911727</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>4.851949739769628</v>
+        <v>5.914059808656537</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-2.0294064768870914, 11.733305956426348]</t>
+          <t>[0.6237608574532381, 11.204358759859836]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.1624652294243898</v>
+        <v>0.02927741500845848</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1624652294243898</v>
+        <v>0.02927741500845848</v>
       </c>
       <c r="P20" t="n">
-        <v>2.962342622303889</v>
+        <v>-3.107000542289005</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[0.4339737599553475, 5.490711484652431]</t>
+          <t>[-4.327158649989544, -1.886842434588465]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.02268172976215266</v>
+        <v>5.985901112781633e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02268172976215266</v>
+        <v>5.985901112781633e-06</v>
       </c>
       <c r="T20" t="n">
-        <v>9.631716178147585</v>
+        <v>8.397633107320711</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[5.751100346174353, 13.512332010120815]</t>
+          <t>[5.235193213777115, 11.560073000864307]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>9.229199512850172e-06</v>
+        <v>2.861403574305754e-06</v>
       </c>
       <c r="W20" t="n">
-        <v>9.229199512850172e-06</v>
+        <v>2.861403574305754e-06</v>
       </c>
       <c r="X20" t="n">
-        <v>12.33585585585596</v>
+        <v>11.57117117117128</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.943783783783809</v>
+        <v>7.027027027027095</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.72792792792812</v>
+        <v>16.11531531531546</v>
       </c>
     </row>
   </sheetData>
